--- a/excel/Format_excel_dosen.xlsx
+++ b/excel/Format_excel_dosen.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ci_upload\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\sikapta\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>No</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>NIDN</t>
+  </si>
+  <si>
+    <t>Username</t>
   </si>
 </sst>
 </file>
@@ -71,9 +74,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -356,20 +362,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -381,6 +388,9 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
